--- a/examples/models/HMP2360_r0_t0.xlsx
+++ b/examples/models/HMP2360_r0_t0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="137">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -364,7 +364,10 @@
     <t>kinetic mechanism</t>
   </si>
   <si>
-    <t>order</t>
+    <t>substrate order</t>
+  </si>
+  <si>
+    <t>product order</t>
   </si>
   <si>
     <t>promiscuous</t>
@@ -1379,18 +1382,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -1424,262 +1427,265 @@
       <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="0" t="s">
         <v>123</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>0</v>
+      <c r="E3" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="J3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L3" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="0" t="s">
         <v>127</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>128</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>0</v>
+      <c r="D5" s="0" t="s">
+        <v>132</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="0" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="0" t="s">
         <v>123</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0</v>
+      <c r="E6" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="0" t="s">
         <v>127</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>128</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>135</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3786,7 +3792,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/examples/models/HMP2360_r0_t0.xlsx
+++ b/examples/models/HMP2360_r0_t0.xlsx
@@ -367,10 +367,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
+    <t>negative effectors</t>
+  </si>
+  <si>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -379,40 +379,40 @@
     <t>subunits</t>
   </si>
   <si>
-    <t>mechanism_ref_type</t>
-  </si>
-  <si>
-    <t>mechanism_ref</t>
-  </si>
-  <si>
-    <t>inhibitors_ref_type</t>
-  </si>
-  <si>
-    <t>inhibitors_ref</t>
-  </si>
-  <si>
-    <t>activators_ref_type</t>
-  </si>
-  <si>
-    <t>activators_ref</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_ref</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_ref</t>
-  </si>
-  <si>
-    <t>subunits_ref_type</t>
-  </si>
-  <si>
-    <t>subunits_ref</t>
+    <t>mechanism_refs_type</t>
+  </si>
+  <si>
+    <t>mechanism_refs</t>
+  </si>
+  <si>
+    <t>inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t>inhibitors_refs</t>
+  </si>
+  <si>
+    <t>activators_refs_type</t>
+  </si>
+  <si>
+    <t>activators_refs</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>negative_effectors_refs</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t>positive_effectors_refs</t>
+  </si>
+  <si>
+    <t>subunits_refs_type</t>
+  </si>
+  <si>
+    <t>subunits_refs</t>
   </si>
   <si>
     <t>comments</t>

--- a/examples/models/HMP2360_r0_t0.xlsx
+++ b/examples/models/HMP2360_r0_t0.xlsx
@@ -11,22 +11,21 @@
     <sheet name="stoic" sheetId="2" r:id="rId2"/>
     <sheet name="mets" sheetId="3" r:id="rId3"/>
     <sheet name="rxns" sheetId="4" r:id="rId4"/>
-    <sheet name="splitRatios" sheetId="5" r:id="rId5"/>
-    <sheet name="poolConst" sheetId="6" r:id="rId6"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" r:id="rId7"/>
-    <sheet name="thermoRxns" sheetId="8" r:id="rId8"/>
-    <sheet name="thermoMets" sheetId="9" r:id="rId9"/>
-    <sheet name="measRates" sheetId="10" r:id="rId10"/>
-    <sheet name="protData" sheetId="11" r:id="rId11"/>
-    <sheet name="metsData" sheetId="12" r:id="rId12"/>
-    <sheet name="kinetics1" sheetId="13" r:id="rId13"/>
+    <sheet name="poolConst" sheetId="5" r:id="rId5"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" r:id="rId6"/>
+    <sheet name="thermoRxns" sheetId="7" r:id="rId7"/>
+    <sheet name="thermoMets" sheetId="8" r:id="rId8"/>
+    <sheet name="measRates" sheetId="9" r:id="rId9"/>
+    <sheet name="protData" sheetId="10" r:id="rId10"/>
+    <sheet name="metsData" sheetId="11" r:id="rId11"/>
+    <sheet name="kinetics1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="138">
   <si>
     <t>Unnamed: 1</t>
   </si>
@@ -193,10 +192,13 @@
     <t>active?</t>
   </si>
   <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>constant?</t>
+  </si>
+  <si>
+    <t>measured?</t>
+  </si>
+  <si>
+    <t>metabolite ID</t>
   </si>
   <si>
     <t>Acetyl-coa</t>
@@ -262,15 +264,18 @@
     <t>reaction name</t>
   </si>
   <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
+    <t>transport reaction?</t>
   </si>
   <si>
     <t>isoenzymes</t>
   </si>
   <si>
+    <t>isoenzymes.1</t>
+  </si>
+  <si>
+    <t>reaction ID</t>
+  </si>
+  <si>
     <t>tryptophan hydroxylase</t>
   </si>
   <si>
@@ -304,49 +309,34 @@
     <t>exchange n-acetyltryptamin</t>
   </si>
   <si>
-    <t>met</t>
-  </si>
-  <si>
     <t>∆Gr'_min (kJ/mol)</t>
   </si>
   <si>
     <t>∆Gr'_max (kJ/mol)</t>
   </si>
   <si>
-    <t>rxn</t>
-  </si>
-  <si>
     <t>min (M)</t>
   </si>
   <si>
     <t>max (M)</t>
   </si>
   <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
+    <t>vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t>vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t>lower_bound</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>upper_bound</t>
+  </si>
+  <si>
+    <t>reaction/enzyme ID</t>
   </si>
   <si>
     <t>kinetic mechanism</t>
@@ -418,9 +408,6 @@
     <t>comments</t>
   </si>
   <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
     <t>substrateInhibOrderedBiBi</t>
   </si>
   <si>
@@ -452,24 +439,6 @@
   </si>
   <si>
     <t>AANAT AANAT_tryptm</t>
-  </si>
-  <si>
-    <t>putative homotetramer (metacyc). From pdb, might actually be a monomer. Tryptophan is substate inhibitor</t>
-  </si>
-  <si>
-    <t>homodimer (metacyc), inhib by serotonin</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc)</t>
-  </si>
-  <si>
-    <t>ASMT has a C-terminal domain similar to other SAM-dependent O-methyltransferases, and an N-terminal domain which intertwines with another monomer to form the physiologically active dimer  (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>Serotonin N-acetyltransferase is a monomeric enzyme (metacyc); inhib by melatonin</t>
-  </si>
-  <si>
-    <t>Modeled as mass action</t>
   </si>
 </sst>
 </file>
@@ -946,138 +915,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2">
-        <v>-81.45477745835591</v>
-      </c>
-      <c r="C2">
-        <v>4.0829462385141</v>
-      </c>
-      <c r="D2">
-        <v>-81.45477745835591</v>
-      </c>
-      <c r="E2">
-        <v>4.0829462385141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="C3">
-        <v>7.99594430470695e-07</v>
-      </c>
-      <c r="D3">
-        <v>18.5183721041727</v>
-      </c>
-      <c r="E3">
-        <v>7.99594430470695e-07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="C4">
-        <v>1.21410377655987e-10</v>
-      </c>
-      <c r="D4">
-        <v>0.431738943043251</v>
-      </c>
-      <c r="E4">
-        <v>1.21410377655987e-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="C5">
-        <v>1.84127891703472e-08</v>
-      </c>
-      <c r="D5">
-        <v>-0.567354685137039</v>
-      </c>
-      <c r="E5">
-        <v>1.84127891703472e-08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="C6">
-        <v>1.65622684914216e-05</v>
-      </c>
-      <c r="D6">
-        <v>85.3794767878033</v>
-      </c>
-      <c r="E6">
-        <v>1.65622684914216e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="C7">
-        <v>2.35376773094737e-10</v>
-      </c>
-      <c r="D7">
-        <v>0.103545682502924</v>
-      </c>
-      <c r="E7">
-        <v>2.35376773094737e-10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1086,16 +923,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1285,7 +1122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -1295,16 +1132,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1592,7 +1429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X14"/>
   <sheetViews>
@@ -1602,76 +1439,76 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1679,10 +1516,10 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1692,9 +1529,6 @@
       </c>
       <c r="K2">
         <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>142</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1738,22 +1572,19 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>143</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1797,13 +1628,13 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -1813,9 +1644,6 @@
       </c>
       <c r="K4">
         <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>144</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1859,19 +1687,16 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
         <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>145</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1915,22 +1740,19 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
         <v>2</v>
-      </c>
-      <c r="L6" t="s">
-        <v>143</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1974,13 +1796,13 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -1990,9 +1812,6 @@
       </c>
       <c r="K7">
         <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>146</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2036,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2086,16 +1905,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>147</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2139,16 +1955,13 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>147</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -2192,16 +2005,13 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>147</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2245,16 +2055,13 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>147</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2298,16 +2105,13 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>147</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2351,16 +2155,13 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
         <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>147</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -3329,15 +3130,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>52</v>
@@ -3351,345 +3152,408 @@
       <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3707,19 +3571,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3727,13 +3591,13 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3744,13 +3608,13 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3761,13 +3625,13 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3778,13 +3642,13 @@
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3795,13 +3659,13 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3812,13 +3676,13 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3829,13 +3693,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3846,13 +3710,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3863,13 +3727,13 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3880,13 +3744,13 @@
         <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3897,13 +3761,13 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3914,13 +3778,13 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3931,13 +3795,13 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3950,7 +3814,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3958,72 +3822,107 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +3940,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4150,124 +4049,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -4277,13 +4058,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4434,7 +4215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -4444,7 +4225,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>96</v>
@@ -4671,6 +4452,96 @@
       </c>
       <c r="C21">
         <v>0.000166511544406742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>-81.45477745835591</v>
+      </c>
+      <c r="C2">
+        <v>4.0829462385141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>18.5183721041727</v>
+      </c>
+      <c r="C3">
+        <v>7.99594430470695e-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>0.431738943043251</v>
+      </c>
+      <c r="C4">
+        <v>1.21410377655987e-10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>-0.567354685137039</v>
+      </c>
+      <c r="C5">
+        <v>1.84127891703472e-08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>85.3794767878033</v>
+      </c>
+      <c r="C6">
+        <v>1.65622684914216e-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>0.103545682502924</v>
+      </c>
+      <c r="C7">
+        <v>2.35376773094737e-10</v>
       </c>
     </row>
   </sheetData>
